--- a/Code/Results/Cases/Case_1_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.227954106537922</v>
+        <v>0.07636889456857432</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1293153821003301</v>
+        <v>0.1364922641372459</v>
       </c>
       <c r="E2">
-        <v>0.1503360320894274</v>
+        <v>0.1522011239481671</v>
       </c>
       <c r="F2">
-        <v>1.302727812460361</v>
+        <v>1.923069012955807</v>
       </c>
       <c r="G2">
-        <v>0.9595649452829207</v>
+        <v>1.265832160430094</v>
       </c>
       <c r="H2">
-        <v>0.6221425517712191</v>
+        <v>1.190944251512263</v>
       </c>
       <c r="I2">
-        <v>0.2742081495407316</v>
+        <v>0.5818441923732784</v>
       </c>
       <c r="J2">
-        <v>0.2016820575680356</v>
+        <v>0.1994494840745205</v>
       </c>
       <c r="K2">
-        <v>2.933986060196247</v>
+        <v>1.17305898848295</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.199114020907885</v>
+        <v>0.06694771805051403</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1140520655361144</v>
+        <v>0.1328050409581749</v>
       </c>
       <c r="E3">
-        <v>0.1335701591484053</v>
+        <v>0.1486666221905821</v>
       </c>
       <c r="F3">
-        <v>1.218000483979949</v>
+        <v>1.917959767128522</v>
       </c>
       <c r="G3">
-        <v>0.8946085893817894</v>
+        <v>1.261498715295843</v>
       </c>
       <c r="H3">
-        <v>0.6013440504773513</v>
+        <v>1.195280968651019</v>
       </c>
       <c r="I3">
-        <v>0.2930736300782293</v>
+        <v>0.5908596728898825</v>
       </c>
       <c r="J3">
-        <v>0.1799976580350986</v>
+        <v>0.195242944255547</v>
       </c>
       <c r="K3">
-        <v>2.542076425492098</v>
+        <v>1.062811734370115</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1813917756435188</v>
+        <v>0.0611510855129751</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1047618965558712</v>
+        <v>0.1305856332785709</v>
       </c>
       <c r="E4">
-        <v>0.1234566899115386</v>
+        <v>0.1465722913638423</v>
       </c>
       <c r="F4">
-        <v>1.168992820042206</v>
+        <v>1.916055699280406</v>
       </c>
       <c r="G4">
-        <v>0.8573369488903637</v>
+        <v>1.259788548364327</v>
       </c>
       <c r="H4">
-        <v>0.5900290004327076</v>
+        <v>1.198610323401184</v>
       </c>
       <c r="I4">
-        <v>0.3053675851057012</v>
+        <v>0.5967222617122561</v>
       </c>
       <c r="J4">
-        <v>0.1670101438263245</v>
+        <v>0.1927804758424188</v>
       </c>
       <c r="K4">
-        <v>2.303036131803538</v>
+        <v>0.9953671376197235</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.17416427891024</v>
+        <v>0.05878608492604087</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1009941662783262</v>
+        <v>0.129692472417986</v>
       </c>
       <c r="E5">
-        <v>0.119376418395408</v>
+        <v>0.1457379132161165</v>
       </c>
       <c r="F5">
-        <v>1.149725567107467</v>
+        <v>1.915589205066524</v>
       </c>
       <c r="G5">
-        <v>0.8427560588625482</v>
+        <v>1.259329902759191</v>
       </c>
       <c r="H5">
-        <v>0.5857614431360645</v>
+        <v>1.200134463004389</v>
       </c>
       <c r="I5">
-        <v>0.310550347934857</v>
+        <v>0.5991934815124802</v>
       </c>
       <c r="J5">
-        <v>0.1617921436521286</v>
+        <v>0.1918072019902795</v>
       </c>
       <c r="K5">
-        <v>2.205953241656943</v>
+        <v>0.9679456649982683</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1729637704431326</v>
+        <v>0.05839321332830139</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1003695625173577</v>
+        <v>0.1295448459535322</v>
       </c>
       <c r="E6">
-        <v>0.1187012480340996</v>
+        <v>0.1456005177214479</v>
       </c>
       <c r="F6">
-        <v>1.146567237704076</v>
+        <v>1.915530414572189</v>
       </c>
       <c r="G6">
-        <v>0.8403702363868604</v>
+        <v>1.259268112893679</v>
       </c>
       <c r="H6">
-        <v>0.5850729300816937</v>
+        <v>1.200397649421461</v>
       </c>
       <c r="I6">
-        <v>0.3114212202961859</v>
+        <v>0.599608786287801</v>
       </c>
       <c r="J6">
-        <v>0.1609299853948372</v>
+        <v>0.1916474128741612</v>
       </c>
       <c r="K6">
-        <v>2.189850482839432</v>
+        <v>0.9633961545734167</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1812943279671231</v>
+        <v>0.06111920147648675</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1047110134630032</v>
+        <v>0.1305735421032352</v>
       </c>
       <c r="E7">
-        <v>0.1234015013656062</v>
+        <v>0.1465609613968049</v>
       </c>
       <c r="F7">
-        <v>1.168730194893087</v>
+        <v>1.916048155948502</v>
       </c>
       <c r="G7">
-        <v>0.8571379082968065</v>
+        <v>1.259781399225716</v>
       </c>
       <c r="H7">
-        <v>0.5899700848472946</v>
+        <v>1.198630200981327</v>
       </c>
       <c r="I7">
-        <v>0.3054367890820302</v>
+        <v>0.5967552568512957</v>
       </c>
       <c r="J7">
-        <v>0.1669394800737649</v>
+        <v>0.1927672277275363</v>
       </c>
       <c r="K7">
-        <v>2.301725602427496</v>
+        <v>0.9949970673461621</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2180117927980945</v>
+        <v>0.07312307225809889</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1240341441522617</v>
+        <v>0.1352116952134566</v>
       </c>
       <c r="E8">
-        <v>0.1445148602657227</v>
+        <v>0.1509666804501713</v>
       </c>
       <c r="F8">
-        <v>1.272854051754436</v>
+        <v>1.921051044444752</v>
       </c>
       <c r="G8">
-        <v>0.9365952468580048</v>
+        <v>1.264140224478638</v>
       </c>
       <c r="H8">
-        <v>0.6146551218560603</v>
+        <v>1.192301065510719</v>
       </c>
       <c r="I8">
-        <v>0.2805619304349545</v>
+        <v>0.5848848093858017</v>
       </c>
       <c r="J8">
-        <v>0.1941326679320952</v>
+        <v>0.1979740467339823</v>
       </c>
       <c r="K8">
-        <v>2.798479200555363</v>
+        <v>1.134994574914515</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2900000284489721</v>
+        <v>0.09656033088629101</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1626943135841969</v>
+        <v>0.1446586314353908</v>
       </c>
       <c r="E9">
-        <v>0.1875710743886998</v>
+        <v>0.1602088738963729</v>
       </c>
       <c r="F9">
-        <v>1.503632456704182</v>
+        <v>1.940676929329499</v>
       </c>
       <c r="G9">
-        <v>1.115541569449178</v>
+        <v>1.280267582551019</v>
       </c>
       <c r="H9">
-        <v>0.6757130299928775</v>
+        <v>1.18518973895803</v>
       </c>
       <c r="I9">
-        <v>0.2376964092781364</v>
+        <v>0.5642047440643019</v>
       </c>
       <c r="J9">
-        <v>0.2504280760972364</v>
+        <v>0.2091433659286679</v>
       </c>
       <c r="K9">
-        <v>3.788877334730955</v>
+        <v>1.411488946557938</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3430363325838357</v>
+        <v>0.1137094744520084</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1917512874390752</v>
+        <v>0.1518117268596342</v>
       </c>
       <c r="E10">
-        <v>0.2205460745422485</v>
+        <v>0.1673682902234361</v>
       </c>
       <c r="F10">
-        <v>1.693462781133263</v>
+        <v>1.961128556565043</v>
       </c>
       <c r="G10">
-        <v>1.264783548220294</v>
+        <v>1.296792252341874</v>
       </c>
       <c r="H10">
-        <v>0.7299664892518649</v>
+        <v>1.183212859717884</v>
       </c>
       <c r="I10">
-        <v>0.2102206157210329</v>
+        <v>0.5505982902781046</v>
       </c>
       <c r="J10">
-        <v>0.2941749991611005</v>
+        <v>0.2179402966738877</v>
       </c>
       <c r="K10">
-        <v>4.532028139226611</v>
+        <v>1.615839414146706</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.367234316381797</v>
+        <v>0.1214942882633636</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2051580190441342</v>
+        <v>0.1551116547513089</v>
       </c>
       <c r="E11">
-        <v>0.2359216140889799</v>
+        <v>0.1707059209507449</v>
       </c>
       <c r="F11">
-        <v>1.785236838804707</v>
+        <v>1.971753351131113</v>
       </c>
       <c r="G11">
-        <v>1.337450157407261</v>
+        <v>1.305337222234215</v>
       </c>
       <c r="H11">
-        <v>0.7571069527703003</v>
+        <v>1.183022515343879</v>
       </c>
       <c r="I11">
-        <v>0.1986941119430341</v>
+        <v>0.5447537428457956</v>
       </c>
       <c r="J11">
-        <v>0.3147384945322074</v>
+        <v>0.2220719945827483</v>
       </c>
       <c r="K11">
-        <v>4.874873048475479</v>
+        <v>1.709071488404732</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3764111886262071</v>
+        <v>0.1244396708914763</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2102661475340994</v>
+        <v>0.1563678143911034</v>
       </c>
       <c r="E12">
-        <v>0.2418055534712238</v>
+        <v>0.1719814294398887</v>
       </c>
       <c r="F12">
-        <v>1.820863026760804</v>
+        <v>1.97596748181013</v>
       </c>
       <c r="G12">
-        <v>1.36573925278708</v>
+        <v>1.308721703115538</v>
       </c>
       <c r="H12">
-        <v>0.7677773533624759</v>
+        <v>1.183052670532675</v>
       </c>
       <c r="I12">
-        <v>0.1944784905422647</v>
+        <v>0.5425902675767151</v>
       </c>
       <c r="J12">
-        <v>0.3226340356274306</v>
+        <v>0.2236553398935541</v>
       </c>
       <c r="K12">
-        <v>5.005516956686563</v>
+        <v>1.744415116689652</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3744341226169752</v>
+        <v>0.1238054468942948</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2091645579604204</v>
+        <v>0.1560969876153422</v>
       </c>
       <c r="E13">
-        <v>0.2405354741298638</v>
+        <v>0.171706208973049</v>
       </c>
       <c r="F13">
-        <v>1.813149842631617</v>
+        <v>1.97505139750595</v>
       </c>
       <c r="G13">
-        <v>1.35961091026229</v>
+        <v>1.307986167555782</v>
       </c>
       <c r="H13">
-        <v>0.7654611498032295</v>
+        <v>1.183041624536571</v>
       </c>
       <c r="I13">
-        <v>0.1953796048049483</v>
+        <v>0.5430539973644368</v>
       </c>
       <c r="J13">
-        <v>0.3209285332317791</v>
+        <v>0.2233135025111608</v>
       </c>
       <c r="K13">
-        <v>4.977341968869041</v>
+        <v>1.73680152128054</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3679890099410983</v>
+        <v>0.1217366590385467</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2055776153109008</v>
+        <v>0.1552148688522124</v>
       </c>
       <c r="E14">
-        <v>0.2364044091247735</v>
+        <v>0.1708106248868475</v>
       </c>
       <c r="F14">
-        <v>1.788149749295258</v>
+        <v>1.972096222890855</v>
       </c>
       <c r="G14">
-        <v>1.339761529993581</v>
+        <v>1.305612680518976</v>
       </c>
       <c r="H14">
-        <v>0.7579766998935611</v>
+        <v>1.18302294563486</v>
       </c>
       <c r="I14">
-        <v>0.1983442428558408</v>
+        <v>0.5445747552153577</v>
       </c>
       <c r="J14">
-        <v>0.3153858079857059</v>
+        <v>0.2222018809101769</v>
       </c>
       <c r="K14">
-        <v>4.885604063030769</v>
+        <v>1.71197845757905</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3640430706884814</v>
+        <v>0.1204691278912691</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2033847154403929</v>
+        <v>0.1546753967238033</v>
       </c>
       <c r="E15">
-        <v>0.2338822688268323</v>
+        <v>0.1702635672147039</v>
       </c>
       <c r="F15">
-        <v>1.772953166459942</v>
+        <v>1.970310957188559</v>
       </c>
       <c r="G15">
-        <v>1.327706405737615</v>
+        <v>1.304178240935187</v>
       </c>
       <c r="H15">
-        <v>0.7534446566971553</v>
+        <v>1.183024826831371</v>
       </c>
       <c r="I15">
-        <v>0.2001798949455988</v>
+        <v>0.5455127424451192</v>
       </c>
       <c r="J15">
-        <v>0.3120052888212683</v>
+        <v>0.2215234261256569</v>
       </c>
       <c r="K15">
-        <v>4.829522258097825</v>
+        <v>1.696778636615591</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3414566545482103</v>
+        <v>0.113200371348114</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1908792677674427</v>
+        <v>0.1515969883706987</v>
       </c>
       <c r="E16">
-        <v>0.2195494278244752</v>
+        <v>0.1671517940103371</v>
       </c>
       <c r="F16">
-        <v>1.687581999023152</v>
+        <v>1.960460852766644</v>
       </c>
       <c r="G16">
-        <v>1.26013778538254</v>
+        <v>1.296254576507096</v>
       </c>
       <c r="H16">
-        <v>0.7282455536317798</v>
+        <v>1.183239589617074</v>
       </c>
       <c r="I16">
-        <v>0.2109942497751032</v>
+        <v>0.5509871982612751</v>
       </c>
       <c r="J16">
-        <v>0.292845567493174</v>
+        <v>0.2176729015987888</v>
       </c>
       <c r="K16">
-        <v>4.50972930349019</v>
+        <v>1.609751913563287</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3276212114147796</v>
+        <v>0.1087368792024961</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1832587172833513</v>
+        <v>0.1497202110268887</v>
       </c>
       <c r="E17">
-        <v>0.2108579355108446</v>
+        <v>0.1652635137437457</v>
       </c>
       <c r="F17">
-        <v>1.636661459477352</v>
+        <v>1.954757073103693</v>
       </c>
       <c r="G17">
-        <v>1.219967583161605</v>
+        <v>1.291657543254701</v>
       </c>
       <c r="H17">
-        <v>0.713443417587996</v>
+        <v>1.18355312257583</v>
       </c>
       <c r="I17">
-        <v>0.2178839708367697</v>
+        <v>0.5544340605913156</v>
       </c>
       <c r="J17">
-        <v>0.281270478643151</v>
+        <v>0.2153440623163476</v>
       </c>
       <c r="K17">
-        <v>4.314858528046955</v>
+        <v>1.556433181494185</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3196699426584217</v>
+        <v>0.1061680628951933</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1788930534561075</v>
+        <v>0.1486450667265018</v>
       </c>
       <c r="E18">
-        <v>0.205893619631766</v>
+        <v>0.1641850276040131</v>
       </c>
       <c r="F18">
-        <v>1.607877221441186</v>
+        <v>1.951600726265013</v>
       </c>
       <c r="G18">
-        <v>1.197306662300065</v>
+        <v>1.289110140789603</v>
       </c>
       <c r="H18">
-        <v>0.7051586234372564</v>
+        <v>1.183800170551706</v>
       </c>
       <c r="I18">
-        <v>0.2219376703956932</v>
+        <v>0.5564490805536515</v>
       </c>
       <c r="J18">
-        <v>0.2746743064885493</v>
+        <v>0.2140168005054761</v>
       </c>
       <c r="K18">
-        <v>4.20321565096674</v>
+        <v>1.525791286673098</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3169788014872523</v>
+        <v>0.1052980484439416</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1774177956642546</v>
+        <v>0.1482817865521895</v>
       </c>
       <c r="E19">
-        <v>0.2042185448612983</v>
+        <v>0.1638211763752224</v>
       </c>
       <c r="F19">
-        <v>1.59821521124438</v>
+        <v>1.950553369903716</v>
       </c>
       <c r="G19">
-        <v>1.189707857285839</v>
+        <v>1.288264213608358</v>
       </c>
       <c r="H19">
-        <v>0.7023917402410405</v>
+        <v>1.183895265866539</v>
       </c>
       <c r="I19">
-        <v>0.2233255256314983</v>
+        <v>0.5571369063106815</v>
       </c>
       <c r="J19">
-        <v>0.2724511384361961</v>
+        <v>0.213569509772924</v>
       </c>
       <c r="K19">
-        <v>4.165487451969057</v>
+        <v>1.515420883588831</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3290933207771474</v>
+        <v>0.1092121857205797</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1840681003658631</v>
+        <v>0.1499195496356691</v>
       </c>
       <c r="E20">
-        <v>0.2117795052233049</v>
+        <v>0.1654637375166814</v>
       </c>
       <c r="F20">
-        <v>1.642029234838944</v>
+        <v>1.955351378474887</v>
       </c>
       <c r="G20">
-        <v>1.224197237902985</v>
+        <v>1.292136891905415</v>
       </c>
       <c r="H20">
-        <v>0.7149951590218677</v>
+        <v>1.183512839948662</v>
       </c>
       <c r="I20">
-        <v>0.2171410736823578</v>
+        <v>0.5540637743382817</v>
       </c>
       <c r="J20">
-        <v>0.2824962084666964</v>
+        <v>0.2155907054413149</v>
       </c>
       <c r="K20">
-        <v>4.335556260469446</v>
+        <v>1.562106402302277</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3698816979059103</v>
+        <v>0.1223443831441244</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2066303027132932</v>
+        <v>0.1554737912535558</v>
       </c>
       <c r="E21">
-        <v>0.2376160677023833</v>
+        <v>0.1710733642335001</v>
       </c>
       <c r="F21">
-        <v>1.795468381221468</v>
+        <v>1.97295904629685</v>
       </c>
       <c r="G21">
-        <v>1.345570103709946</v>
+        <v>1.306305788796976</v>
       </c>
       <c r="H21">
-        <v>0.7601640686843893</v>
+        <v>1.183025655150942</v>
       </c>
       <c r="I21">
-        <v>0.1974693279859139</v>
+        <v>0.5441267213392607</v>
       </c>
       <c r="J21">
-        <v>0.3170107807115699</v>
+        <v>0.2225278813324394</v>
       </c>
       <c r="K21">
-        <v>4.912526471978083</v>
+        <v>1.719268547240631</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3966204370587434</v>
+        <v>0.1309120369352854</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2215606443361082</v>
+        <v>0.1591419526185689</v>
       </c>
       <c r="E22">
-        <v>0.2548646838890036</v>
+        <v>0.1748073135238144</v>
       </c>
       <c r="F22">
-        <v>1.900891333834323</v>
+        <v>1.985578877215701</v>
       </c>
       <c r="G22">
-        <v>1.429439341147798</v>
+        <v>1.316433054372652</v>
       </c>
       <c r="H22">
-        <v>0.7919959298164656</v>
+        <v>1.183303288629617</v>
       </c>
       <c r="I22">
-        <v>0.185487449505052</v>
+        <v>0.5379221840467405</v>
       </c>
       <c r="J22">
-        <v>0.3402082227497658</v>
+        <v>0.2271711167427668</v>
       </c>
       <c r="K22">
-        <v>5.294435967626896</v>
+        <v>1.822208269578425</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3823408534268395</v>
+        <v>0.1263407554727678</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2135736521399423</v>
+        <v>0.1571807149426832</v>
       </c>
       <c r="E23">
-        <v>0.2456228321484488</v>
+        <v>0.1728082351168538</v>
       </c>
       <c r="F23">
-        <v>1.844120916536994</v>
+        <v>1.978741417414085</v>
       </c>
       <c r="G23">
-        <v>1.384230334898348</v>
+        <v>1.310948310473464</v>
       </c>
       <c r="H23">
-        <v>0.7747811342589443</v>
+        <v>1.18310047684173</v>
       </c>
       <c r="I23">
-        <v>0.191799030016945</v>
+        <v>0.541207102035294</v>
       </c>
       <c r="J23">
-        <v>0.3277639681948585</v>
+        <v>0.2246828996468366</v>
       </c>
       <c r="K23">
-        <v>5.090115955694614</v>
+        <v>1.767246942621341</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3284277713132724</v>
+        <v>0.1089973080242714</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1837021303298769</v>
+        <v>0.149829416685975</v>
       </c>
       <c r="E24">
-        <v>0.2113627627715005</v>
+        <v>0.1653731941994252</v>
       </c>
       <c r="F24">
-        <v>1.639600942292788</v>
+        <v>1.955082310463894</v>
       </c>
       <c r="G24">
-        <v>1.222283667171979</v>
+        <v>1.291919880996261</v>
       </c>
       <c r="H24">
-        <v>0.7142929183291642</v>
+        <v>1.18353084368735</v>
       </c>
       <c r="I24">
-        <v>0.2174766494232809</v>
+        <v>0.5542310768079748</v>
       </c>
       <c r="J24">
-        <v>0.2819418747834561</v>
+        <v>0.2154791619002765</v>
       </c>
       <c r="K24">
-        <v>4.326197607516349</v>
+        <v>1.559541502530237</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2705116476817579</v>
+        <v>0.09023170191592556</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1521354084842841</v>
+        <v>0.142065547870871</v>
       </c>
       <c r="E25">
-        <v>0.1757136255526532</v>
+        <v>0.1576439187250998</v>
       </c>
       <c r="F25">
-        <v>1.437956705750366</v>
+        <v>1.934311789187461</v>
       </c>
       <c r="G25">
-        <v>1.064297227677059</v>
+        <v>1.275087563672628</v>
       </c>
       <c r="H25">
-        <v>0.6576766929577076</v>
+        <v>1.186544411090253</v>
       </c>
       <c r="I25">
-        <v>0.2486189844402187</v>
+        <v>0.5695207754950804</v>
       </c>
       <c r="J25">
-        <v>0.2348244740514502</v>
+        <v>0.206018474801084</v>
       </c>
       <c r="K25">
-        <v>3.518662085334483</v>
+        <v>1.336478582364293</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07636889456857432</v>
+        <v>0.2279541065380499</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1364922641372459</v>
+        <v>0.1293153821002306</v>
       </c>
       <c r="E2">
-        <v>0.1522011239481671</v>
+        <v>0.1503360320894274</v>
       </c>
       <c r="F2">
-        <v>1.923069012955807</v>
+        <v>1.302727812460375</v>
       </c>
       <c r="G2">
-        <v>1.265832160430094</v>
+        <v>0.9595649452829491</v>
       </c>
       <c r="H2">
-        <v>1.190944251512263</v>
+        <v>0.6221425517712191</v>
       </c>
       <c r="I2">
-        <v>0.5818441923732784</v>
+        <v>0.2742081495407156</v>
       </c>
       <c r="J2">
-        <v>0.1994494840745205</v>
+        <v>0.2016820575680356</v>
       </c>
       <c r="K2">
-        <v>1.17305898848295</v>
+        <v>2.933986060196276</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06694771805051403</v>
+        <v>0.1991140209079134</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1328050409581749</v>
+        <v>0.1140520655361001</v>
       </c>
       <c r="E3">
-        <v>0.1486666221905821</v>
+        <v>0.1335701591484018</v>
       </c>
       <c r="F3">
-        <v>1.917959767128522</v>
+        <v>1.218000483979949</v>
       </c>
       <c r="G3">
-        <v>1.261498715295843</v>
+        <v>0.8946085893817752</v>
       </c>
       <c r="H3">
-        <v>1.195280968651019</v>
+        <v>0.6013440504772234</v>
       </c>
       <c r="I3">
-        <v>0.5908596728898825</v>
+        <v>0.2930736300782186</v>
       </c>
       <c r="J3">
-        <v>0.195242944255547</v>
+        <v>0.1799976580350631</v>
       </c>
       <c r="K3">
-        <v>1.062811734370115</v>
+        <v>2.542076425491928</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0611510855129751</v>
+        <v>0.1813917756436325</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1305856332785709</v>
+        <v>0.1047618965560559</v>
       </c>
       <c r="E4">
-        <v>0.1465722913638423</v>
+        <v>0.123456689911535</v>
       </c>
       <c r="F4">
-        <v>1.916055699280406</v>
+        <v>1.168992820042192</v>
       </c>
       <c r="G4">
-        <v>1.259788548364327</v>
+        <v>0.8573369488903353</v>
       </c>
       <c r="H4">
-        <v>1.198610323401184</v>
+        <v>0.5900290004326934</v>
       </c>
       <c r="I4">
-        <v>0.5967222617122561</v>
+        <v>0.3053675851056887</v>
       </c>
       <c r="J4">
-        <v>0.1927804758424188</v>
+        <v>0.1670101438263103</v>
       </c>
       <c r="K4">
-        <v>0.9953671376197235</v>
+        <v>2.303036131803623</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05878608492604087</v>
+        <v>0.17416427891024</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.129692472417986</v>
+        <v>0.100994166278511</v>
       </c>
       <c r="E5">
-        <v>0.1457379132161165</v>
+        <v>0.1193764183954222</v>
       </c>
       <c r="F5">
-        <v>1.915589205066524</v>
+        <v>1.149725567107467</v>
       </c>
       <c r="G5">
-        <v>1.259329902759191</v>
+        <v>0.8427560588625056</v>
       </c>
       <c r="H5">
-        <v>1.200134463004389</v>
+        <v>0.5857614431360645</v>
       </c>
       <c r="I5">
-        <v>0.5991934815124802</v>
+        <v>0.3105503479348535</v>
       </c>
       <c r="J5">
-        <v>0.1918072019902795</v>
+        <v>0.1617921436522209</v>
       </c>
       <c r="K5">
-        <v>0.9679456649982683</v>
+        <v>2.205953241657028</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05839321332830139</v>
+        <v>0.1729637704431184</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1295448459535322</v>
+        <v>0.1003695625173719</v>
       </c>
       <c r="E6">
-        <v>0.1456005177214479</v>
+        <v>0.1187012480341139</v>
       </c>
       <c r="F6">
-        <v>1.915530414572189</v>
+        <v>1.146567237704062</v>
       </c>
       <c r="G6">
-        <v>1.259268112893679</v>
+        <v>0.8403702363868035</v>
       </c>
       <c r="H6">
-        <v>1.200397649421461</v>
+        <v>0.5850729300817079</v>
       </c>
       <c r="I6">
-        <v>0.599608786287801</v>
+        <v>0.3114212202961717</v>
       </c>
       <c r="J6">
-        <v>0.1916474128741612</v>
+        <v>0.1609299853948016</v>
       </c>
       <c r="K6">
-        <v>0.9633961545734167</v>
+        <v>2.189850482839688</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06111920147648675</v>
+        <v>0.181294327967251</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1305735421032352</v>
+        <v>0.1047110134627616</v>
       </c>
       <c r="E7">
-        <v>0.1465609613968049</v>
+        <v>0.1234015013656027</v>
       </c>
       <c r="F7">
-        <v>1.916048155948502</v>
+        <v>1.168730194893087</v>
       </c>
       <c r="G7">
-        <v>1.259781399225716</v>
+        <v>0.8571379082968349</v>
       </c>
       <c r="H7">
-        <v>1.198630200981327</v>
+        <v>0.5899700848472662</v>
       </c>
       <c r="I7">
-        <v>0.5967552568512957</v>
+        <v>0.3054367890820284</v>
       </c>
       <c r="J7">
-        <v>0.1927672277275363</v>
+        <v>0.1669394800737436</v>
       </c>
       <c r="K7">
-        <v>0.9949970673461621</v>
+        <v>2.301725602427382</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07312307225809889</v>
+        <v>0.2180117927980945</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1352116952134566</v>
+        <v>0.1240341441520769</v>
       </c>
       <c r="E8">
-        <v>0.1509666804501713</v>
+        <v>0.1445148602657156</v>
       </c>
       <c r="F8">
-        <v>1.921051044444752</v>
+        <v>1.272854051754436</v>
       </c>
       <c r="G8">
-        <v>1.264140224478638</v>
+        <v>0.9365952468580332</v>
       </c>
       <c r="H8">
-        <v>1.192301065510719</v>
+        <v>0.6146551218560603</v>
       </c>
       <c r="I8">
-        <v>0.5848848093858017</v>
+        <v>0.2805619304349527</v>
       </c>
       <c r="J8">
-        <v>0.1979740467339823</v>
+        <v>0.194132667932152</v>
       </c>
       <c r="K8">
-        <v>1.134994574914515</v>
+        <v>2.798479200555335</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09656033088629101</v>
+        <v>0.2900000284489579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1446586314353908</v>
+        <v>0.1626943135843248</v>
       </c>
       <c r="E9">
-        <v>0.1602088738963729</v>
+        <v>0.1875710743886998</v>
       </c>
       <c r="F9">
-        <v>1.940676929329499</v>
+        <v>1.503632456704182</v>
       </c>
       <c r="G9">
-        <v>1.280267582551019</v>
+        <v>1.115541569449235</v>
       </c>
       <c r="H9">
-        <v>1.18518973895803</v>
+        <v>0.675713029992977</v>
       </c>
       <c r="I9">
-        <v>0.5642047440643019</v>
+        <v>0.2376964092781559</v>
       </c>
       <c r="J9">
-        <v>0.2091433659286679</v>
+        <v>0.2504280760972364</v>
       </c>
       <c r="K9">
-        <v>1.411488946557938</v>
+        <v>3.788877334730955</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1137094744520084</v>
+        <v>0.3430363325839636</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1518117268596342</v>
+        <v>0.191751287439061</v>
       </c>
       <c r="E10">
-        <v>0.1673682902234361</v>
+        <v>0.2205460745422698</v>
       </c>
       <c r="F10">
-        <v>1.961128556565043</v>
+        <v>1.693462781133292</v>
       </c>
       <c r="G10">
-        <v>1.296792252341874</v>
+        <v>1.264783548220294</v>
       </c>
       <c r="H10">
-        <v>1.183212859717884</v>
+        <v>0.7299664892518649</v>
       </c>
       <c r="I10">
-        <v>0.5505982902781046</v>
+        <v>0.2102206157210347</v>
       </c>
       <c r="J10">
-        <v>0.2179402966738877</v>
+        <v>0.2941749991610862</v>
       </c>
       <c r="K10">
-        <v>1.615839414146706</v>
+        <v>4.532028139226668</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1214942882633636</v>
+        <v>0.3672343163819107</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1551116547513089</v>
+        <v>0.2051580190442337</v>
       </c>
       <c r="E11">
-        <v>0.1707059209507449</v>
+        <v>0.2359216140890013</v>
       </c>
       <c r="F11">
-        <v>1.971753351131113</v>
+        <v>1.785236838804707</v>
       </c>
       <c r="G11">
-        <v>1.305337222234215</v>
+        <v>1.337450157407261</v>
       </c>
       <c r="H11">
-        <v>1.183022515343879</v>
+        <v>0.7571069527701866</v>
       </c>
       <c r="I11">
-        <v>0.5447537428457956</v>
+        <v>0.1986941119430341</v>
       </c>
       <c r="J11">
-        <v>0.2220719945827483</v>
+        <v>0.3147384945322216</v>
       </c>
       <c r="K11">
-        <v>1.709071488404732</v>
+        <v>4.874873048475649</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1244396708914763</v>
+        <v>0.3764111886261077</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1563678143911034</v>
+        <v>0.2102661475340852</v>
       </c>
       <c r="E12">
-        <v>0.1719814294398887</v>
+        <v>0.241805553471238</v>
       </c>
       <c r="F12">
-        <v>1.97596748181013</v>
+        <v>1.820863026760762</v>
       </c>
       <c r="G12">
-        <v>1.308721703115538</v>
+        <v>1.365739252787051</v>
       </c>
       <c r="H12">
-        <v>1.183052670532675</v>
+        <v>0.7677773533625043</v>
       </c>
       <c r="I12">
-        <v>0.5425902675767151</v>
+        <v>0.1944784905422843</v>
       </c>
       <c r="J12">
-        <v>0.2236553398935541</v>
+        <v>0.3226340356274733</v>
       </c>
       <c r="K12">
-        <v>1.744415116689652</v>
+        <v>5.00551695668662</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1238054468942948</v>
+        <v>0.3744341226170889</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1560969876153422</v>
+        <v>0.209164557960321</v>
       </c>
       <c r="E13">
-        <v>0.171706208973049</v>
+        <v>0.2405354741298353</v>
       </c>
       <c r="F13">
-        <v>1.97505139750595</v>
+        <v>1.813149842631631</v>
       </c>
       <c r="G13">
-        <v>1.307986167555782</v>
+        <v>1.359610910262347</v>
       </c>
       <c r="H13">
-        <v>1.183041624536571</v>
+        <v>0.7654611498032295</v>
       </c>
       <c r="I13">
-        <v>0.5430539973644368</v>
+        <v>0.1953796048049501</v>
       </c>
       <c r="J13">
-        <v>0.2233135025111608</v>
+        <v>0.3209285332317364</v>
       </c>
       <c r="K13">
-        <v>1.73680152128054</v>
+        <v>4.977341968869098</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1217366590385467</v>
+        <v>0.3679890099410983</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1552148688522124</v>
+        <v>0.2055776153109719</v>
       </c>
       <c r="E14">
-        <v>0.1708106248868475</v>
+        <v>0.2364044091247806</v>
       </c>
       <c r="F14">
-        <v>1.972096222890855</v>
+        <v>1.788149749295258</v>
       </c>
       <c r="G14">
-        <v>1.305612680518976</v>
+        <v>1.339761529993467</v>
       </c>
       <c r="H14">
-        <v>1.18302294563486</v>
+        <v>0.7579766998935895</v>
       </c>
       <c r="I14">
-        <v>0.5445747552153577</v>
+        <v>0.1983442428558373</v>
       </c>
       <c r="J14">
-        <v>0.2222018809101769</v>
+        <v>0.315385807985777</v>
       </c>
       <c r="K14">
-        <v>1.71197845757905</v>
+        <v>4.885604063030769</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1204691278912691</v>
+        <v>0.364043070688453</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1546753967238033</v>
+        <v>0.203384715440464</v>
       </c>
       <c r="E15">
-        <v>0.1702635672147039</v>
+        <v>0.2338822688268252</v>
       </c>
       <c r="F15">
-        <v>1.970310957188559</v>
+        <v>1.772953166459956</v>
       </c>
       <c r="G15">
-        <v>1.304178240935187</v>
+        <v>1.327706405737644</v>
       </c>
       <c r="H15">
-        <v>1.183024826831371</v>
+        <v>0.7534446566971553</v>
       </c>
       <c r="I15">
-        <v>0.5455127424451192</v>
+        <v>0.2001798949455864</v>
       </c>
       <c r="J15">
-        <v>0.2215234261256569</v>
+        <v>0.3120052888212683</v>
       </c>
       <c r="K15">
-        <v>1.696778636615591</v>
+        <v>4.829522258097825</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.113200371348114</v>
+        <v>0.3414566545483382</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1515969883706987</v>
+        <v>0.1908792677674711</v>
       </c>
       <c r="E16">
-        <v>0.1671517940103371</v>
+        <v>0.2195494278244965</v>
       </c>
       <c r="F16">
-        <v>1.960460852766644</v>
+        <v>1.687581999023124</v>
       </c>
       <c r="G16">
-        <v>1.296254576507096</v>
+        <v>1.260137785382483</v>
       </c>
       <c r="H16">
-        <v>1.183239589617074</v>
+        <v>0.7282455536316661</v>
       </c>
       <c r="I16">
-        <v>0.5509871982612751</v>
+        <v>0.2109942497750872</v>
       </c>
       <c r="J16">
-        <v>0.2176729015987888</v>
+        <v>0.2928455674932025</v>
       </c>
       <c r="K16">
-        <v>1.609751913563287</v>
+        <v>4.50972930349036</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1087368792024961</v>
+        <v>0.3276212114147654</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1497202110268887</v>
+        <v>0.1832587172832518</v>
       </c>
       <c r="E17">
-        <v>0.1652635137437457</v>
+        <v>0.2108579355108162</v>
       </c>
       <c r="F17">
-        <v>1.954757073103693</v>
+        <v>1.636661459477338</v>
       </c>
       <c r="G17">
-        <v>1.291657543254701</v>
+        <v>1.219967583161576</v>
       </c>
       <c r="H17">
-        <v>1.18355312257583</v>
+        <v>0.7134434175881097</v>
       </c>
       <c r="I17">
-        <v>0.5544340605913156</v>
+        <v>0.2178839708367768</v>
       </c>
       <c r="J17">
-        <v>0.2153440623163476</v>
+        <v>0.2812704786432221</v>
       </c>
       <c r="K17">
-        <v>1.556433181494185</v>
+        <v>4.314858528047012</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1061680628951933</v>
+        <v>0.3196699426583223</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1486450667265018</v>
+        <v>0.1788930534560365</v>
       </c>
       <c r="E18">
-        <v>0.1641850276040131</v>
+        <v>0.2058936196317802</v>
       </c>
       <c r="F18">
-        <v>1.951600726265013</v>
+        <v>1.607877221441186</v>
       </c>
       <c r="G18">
-        <v>1.289110140789603</v>
+        <v>1.197306662300122</v>
       </c>
       <c r="H18">
-        <v>1.183800170551706</v>
+        <v>0.7051586234372564</v>
       </c>
       <c r="I18">
-        <v>0.5564490805536515</v>
+        <v>0.2219376703956932</v>
       </c>
       <c r="J18">
-        <v>0.2140168005054761</v>
+        <v>0.2746743064885777</v>
       </c>
       <c r="K18">
-        <v>1.525791286673098</v>
+        <v>4.203215650966797</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1052980484439416</v>
+        <v>0.3169788014871386</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1482817865521895</v>
+        <v>0.1774177956639136</v>
       </c>
       <c r="E19">
-        <v>0.1638211763752224</v>
+        <v>0.204218544861277</v>
       </c>
       <c r="F19">
-        <v>1.950553369903716</v>
+        <v>1.598215211244366</v>
       </c>
       <c r="G19">
-        <v>1.288264213608358</v>
+        <v>1.189707857285867</v>
       </c>
       <c r="H19">
-        <v>1.183895265866539</v>
+        <v>0.7023917402409552</v>
       </c>
       <c r="I19">
-        <v>0.5571369063106815</v>
+        <v>0.2233255256315001</v>
       </c>
       <c r="J19">
-        <v>0.213569509772924</v>
+        <v>0.2724511384362529</v>
       </c>
       <c r="K19">
-        <v>1.515420883588831</v>
+        <v>4.165487451969057</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1092121857205797</v>
+        <v>0.3290933207770337</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1499195496356691</v>
+        <v>0.1840681003660904</v>
       </c>
       <c r="E20">
-        <v>0.1654637375166814</v>
+        <v>0.2117795052233049</v>
       </c>
       <c r="F20">
-        <v>1.955351378474887</v>
+        <v>1.642029234838958</v>
       </c>
       <c r="G20">
-        <v>1.292136891905415</v>
+        <v>1.22419723790307</v>
       </c>
       <c r="H20">
-        <v>1.183512839948662</v>
+        <v>0.7149951590219814</v>
       </c>
       <c r="I20">
-        <v>0.5540637743382817</v>
+        <v>0.2171410736823702</v>
       </c>
       <c r="J20">
-        <v>0.2155907054413149</v>
+        <v>0.2824962084666964</v>
       </c>
       <c r="K20">
-        <v>1.562106402302277</v>
+        <v>4.335556260469446</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1223443831441244</v>
+        <v>0.3698816979057824</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1554737912535558</v>
+        <v>0.206630302713279</v>
       </c>
       <c r="E21">
-        <v>0.1710733642335001</v>
+        <v>0.2376160677023833</v>
       </c>
       <c r="F21">
-        <v>1.97295904629685</v>
+        <v>1.795468381221482</v>
       </c>
       <c r="G21">
-        <v>1.306305788796976</v>
+        <v>1.345570103709974</v>
       </c>
       <c r="H21">
-        <v>1.183025655150942</v>
+        <v>0.7601640686843893</v>
       </c>
       <c r="I21">
-        <v>0.5441267213392607</v>
+        <v>0.1974693279859157</v>
       </c>
       <c r="J21">
-        <v>0.2225278813324394</v>
+        <v>0.3170107807115699</v>
       </c>
       <c r="K21">
-        <v>1.719268547240631</v>
+        <v>4.91252647197814</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1309120369352854</v>
+        <v>0.3966204370585729</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1591419526185689</v>
+        <v>0.2215606443361082</v>
       </c>
       <c r="E22">
-        <v>0.1748073135238144</v>
+        <v>0.2548646838889468</v>
       </c>
       <c r="F22">
-        <v>1.985578877215701</v>
+        <v>1.900891333834338</v>
       </c>
       <c r="G22">
-        <v>1.316433054372652</v>
+        <v>1.429439341147798</v>
       </c>
       <c r="H22">
-        <v>1.183303288629617</v>
+        <v>0.7919959298164372</v>
       </c>
       <c r="I22">
-        <v>0.5379221840467405</v>
+        <v>0.1854874495050467</v>
       </c>
       <c r="J22">
-        <v>0.2271711167427668</v>
+        <v>0.3402082227498511</v>
       </c>
       <c r="K22">
-        <v>1.822208269578425</v>
+        <v>5.294435967626896</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1263407554727678</v>
+        <v>0.3823408534268395</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1571807149426832</v>
+        <v>0.2135736521398428</v>
       </c>
       <c r="E23">
-        <v>0.1728082351168538</v>
+        <v>0.2456228321484488</v>
       </c>
       <c r="F23">
-        <v>1.978741417414085</v>
+        <v>1.844120916536994</v>
       </c>
       <c r="G23">
-        <v>1.310948310473464</v>
+        <v>1.384230334898348</v>
       </c>
       <c r="H23">
-        <v>1.18310047684173</v>
+        <v>0.7747811342589728</v>
       </c>
       <c r="I23">
-        <v>0.541207102035294</v>
+        <v>0.1917990300169343</v>
       </c>
       <c r="J23">
-        <v>0.2246828996468366</v>
+        <v>0.3277639681948727</v>
       </c>
       <c r="K23">
-        <v>1.767246942621341</v>
+        <v>5.090115955694614</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1089973080242714</v>
+        <v>0.3284277713132582</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.149829416685975</v>
+        <v>0.1837021303299906</v>
       </c>
       <c r="E24">
-        <v>0.1653731941994252</v>
+        <v>0.2113627627715147</v>
       </c>
       <c r="F24">
-        <v>1.955082310463894</v>
+        <v>1.639600942292788</v>
       </c>
       <c r="G24">
-        <v>1.291919880996261</v>
+        <v>1.222283667171951</v>
       </c>
       <c r="H24">
-        <v>1.18353084368735</v>
+        <v>0.7142929183291642</v>
       </c>
       <c r="I24">
-        <v>0.5542310768079748</v>
+        <v>0.2174766494232774</v>
       </c>
       <c r="J24">
-        <v>0.2154791619002765</v>
+        <v>0.2819418747834987</v>
       </c>
       <c r="K24">
-        <v>1.559541502530237</v>
+        <v>4.326197607516406</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09023170191592556</v>
+        <v>0.2705116476816443</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.142065547870871</v>
+        <v>0.1521354084842841</v>
       </c>
       <c r="E25">
-        <v>0.1576439187250998</v>
+        <v>0.1757136255526603</v>
       </c>
       <c r="F25">
-        <v>1.934311789187461</v>
+        <v>1.437956705750366</v>
       </c>
       <c r="G25">
-        <v>1.275087563672628</v>
+        <v>1.064297227677002</v>
       </c>
       <c r="H25">
-        <v>1.186544411090253</v>
+        <v>0.6576766929576081</v>
       </c>
       <c r="I25">
-        <v>0.5695207754950804</v>
+        <v>0.2486189844402151</v>
       </c>
       <c r="J25">
-        <v>0.206018474801084</v>
+        <v>0.2348244740514502</v>
       </c>
       <c r="K25">
-        <v>1.336478582364293</v>
+        <v>3.518662085334483</v>
       </c>
       <c r="L25">
         <v>0</v>
